--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N2">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q2">
-        <v>2428.22021464663</v>
+        <v>2333.132529709442</v>
       </c>
       <c r="R2">
-        <v>21853.98193181967</v>
+        <v>20998.19276738498</v>
       </c>
       <c r="S2">
-        <v>0.1029955548442667</v>
+        <v>0.1042482888806672</v>
       </c>
       <c r="T2">
-        <v>0.1029955548442667</v>
+        <v>0.1042482888806672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q3">
-        <v>2434.682416074174</v>
+        <v>2460.943090315108</v>
       </c>
       <c r="R3">
-        <v>21912.14174466757</v>
+        <v>22148.48781283597</v>
       </c>
       <c r="S3">
-        <v>0.1032696560223767</v>
+        <v>0.1099590798770444</v>
       </c>
       <c r="T3">
-        <v>0.1032696560223767</v>
+        <v>0.1099590798770444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N4">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O4">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P4">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q4">
-        <v>693.1706937211077</v>
+        <v>631.6865424441836</v>
       </c>
       <c r="R4">
-        <v>6238.536243489968</v>
+        <v>5685.178881997652</v>
       </c>
       <c r="S4">
-        <v>0.0294015755947326</v>
+        <v>0.02822481805907186</v>
       </c>
       <c r="T4">
-        <v>0.0294015755947326</v>
+        <v>0.02822481805907185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N5">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O5">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P5">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q5">
-        <v>1194.949426350366</v>
+        <v>1596.39156690072</v>
       </c>
       <c r="R5">
-        <v>10754.54483715329</v>
+        <v>14367.52410210648</v>
       </c>
       <c r="S5">
-        <v>0.05068505666637187</v>
+        <v>0.07132946247749267</v>
       </c>
       <c r="T5">
-        <v>0.05068505666637187</v>
+        <v>0.07132946247749265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N6">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O6">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P6">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q6">
-        <v>547.4889854722089</v>
+        <v>561.9467528507651</v>
       </c>
       <c r="R6">
-        <v>4927.40086924988</v>
+        <v>5057.520775656886</v>
       </c>
       <c r="S6">
-        <v>0.02322233028524593</v>
+        <v>0.02510872686432218</v>
       </c>
       <c r="T6">
-        <v>0.02322233028524593</v>
+        <v>0.02510872686432218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N7">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q7">
-        <v>991.8272713899534</v>
+        <v>942.8185802422117</v>
       </c>
       <c r="R7">
-        <v>8926.445442509581</v>
+        <v>8485.367222179904</v>
       </c>
       <c r="S7">
-        <v>0.04206941343717846</v>
+        <v>0.04212672124861713</v>
       </c>
       <c r="T7">
-        <v>0.04206941343717846</v>
+        <v>0.04212672124861712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q8">
         <v>994.4668127175451</v>
@@ -948,10 +948,10 @@
         <v>8950.201314457905</v>
       </c>
       <c r="S8">
-        <v>0.04218137240281505</v>
+        <v>0.044434451217105</v>
       </c>
       <c r="T8">
-        <v>0.04218137240281505</v>
+        <v>0.04443445121710499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N9">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O9">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P9">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q9">
-        <v>283.1314860217229</v>
+        <v>255.2644573428951</v>
       </c>
       <c r="R9">
-        <v>2548.183374195506</v>
+        <v>2297.380116086056</v>
       </c>
       <c r="S9">
-        <v>0.01200932449239692</v>
+        <v>0.01140564565072644</v>
       </c>
       <c r="T9">
-        <v>0.01200932449239692</v>
+        <v>0.01140564565072644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N10">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O10">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P10">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q10">
-        <v>488.087292016284</v>
+        <v>645.1016440130885</v>
       </c>
       <c r="R10">
-        <v>4392.785628146556</v>
+        <v>5805.914796117796</v>
       </c>
       <c r="S10">
-        <v>0.02070274398937434</v>
+        <v>0.02882422737933574</v>
       </c>
       <c r="T10">
-        <v>0.02070274398937434</v>
+        <v>0.02882422737933574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N11">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O11">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P11">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q11">
-        <v>223.6265489025993</v>
+        <v>227.0826165886342</v>
       </c>
       <c r="R11">
-        <v>2012.638940123394</v>
+        <v>2043.743549297708</v>
       </c>
       <c r="S11">
-        <v>0.009485359006239718</v>
+        <v>0.01014643356623117</v>
       </c>
       <c r="T11">
-        <v>0.009485359006239716</v>
+        <v>0.01014643356623117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N12">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q12">
-        <v>2019.153717661304</v>
+        <v>1757.725849932773</v>
       </c>
       <c r="R12">
-        <v>18172.38345895173</v>
+        <v>15819.53264939496</v>
       </c>
       <c r="S12">
-        <v>0.08564456230616378</v>
+        <v>0.07853814982367412</v>
       </c>
       <c r="T12">
-        <v>0.0856445623061638</v>
+        <v>0.07853814982367412</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q13">
-        <v>2024.527273963157</v>
+        <v>1854.015247731773</v>
       </c>
       <c r="R13">
-        <v>18220.74546566841</v>
+        <v>16686.13722958596</v>
       </c>
       <c r="S13">
-        <v>0.08587248743810115</v>
+        <v>0.08284052220504318</v>
       </c>
       <c r="T13">
-        <v>0.08587248743810115</v>
+        <v>0.08284052220504318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N14">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O14">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P14">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q14">
-        <v>576.3967266060013</v>
+        <v>475.8974257013481</v>
       </c>
       <c r="R14">
-        <v>5187.570539454011</v>
+        <v>4283.076831312133</v>
       </c>
       <c r="S14">
-        <v>0.02444848301200867</v>
+        <v>0.02126389807708796</v>
       </c>
       <c r="T14">
-        <v>0.02444848301200867</v>
+        <v>0.02126389807708796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N15">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O15">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P15">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q15">
-        <v>993.6440534013541</v>
+        <v>1202.682954365018</v>
       </c>
       <c r="R15">
-        <v>8942.796480612187</v>
+        <v>10824.14658928516</v>
       </c>
       <c r="S15">
-        <v>0.04214647418733886</v>
+        <v>0.05373789892428984</v>
       </c>
       <c r="T15">
-        <v>0.04214647418733885</v>
+        <v>0.05373789892428984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N16">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O16">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P16">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q16">
-        <v>455.2570700659043</v>
+        <v>423.357148037614</v>
       </c>
       <c r="R16">
-        <v>4097.313630593139</v>
+        <v>3810.214332338526</v>
       </c>
       <c r="S16">
-        <v>0.01931021504778827</v>
+        <v>0.01891631002796778</v>
       </c>
       <c r="T16">
-        <v>0.01931021504778826</v>
+        <v>0.01891631002796779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N17">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q17">
-        <v>419.1907062023735</v>
+        <v>418.417196284857</v>
       </c>
       <c r="R17">
-        <v>3772.716355821361</v>
+        <v>3765.754766563713</v>
       </c>
       <c r="S17">
-        <v>0.01778042168928921</v>
+        <v>0.01869558466804059</v>
       </c>
       <c r="T17">
-        <v>0.0177804216892892</v>
+        <v>0.01869558466804059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q18">
-        <v>420.3062947983726</v>
+        <v>441.338370175857</v>
       </c>
       <c r="R18">
-        <v>3782.756653185353</v>
+        <v>3972.045331582713</v>
       </c>
       <c r="S18">
-        <v>0.01782774057154288</v>
+        <v>0.01971974130159906</v>
       </c>
       <c r="T18">
-        <v>0.01782774057154288</v>
+        <v>0.01971974130159905</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N19">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O19">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P19">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q19">
-        <v>119.6640695382836</v>
+        <v>113.284825724532</v>
       </c>
       <c r="R19">
-        <v>1076.976625844552</v>
+        <v>1019.563431520788</v>
       </c>
       <c r="S19">
-        <v>0.005075679364942616</v>
+        <v>0.005061756710150445</v>
       </c>
       <c r="T19">
-        <v>0.005075679364942615</v>
+        <v>0.005061756710150443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N20">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O20">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P20">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q20">
-        <v>206.2875891101281</v>
+        <v>286.292216618562</v>
       </c>
       <c r="R20">
-        <v>1856.588301991152</v>
+        <v>2576.629949567058</v>
       </c>
       <c r="S20">
-        <v>0.008749908500772324</v>
+        <v>0.0127920181654041</v>
       </c>
       <c r="T20">
-        <v>0.008749908500772322</v>
+        <v>0.0127920181654041</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N21">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O21">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P21">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q21">
-        <v>94.51461324380534</v>
+        <v>100.777894866726</v>
       </c>
       <c r="R21">
-        <v>850.6315191942481</v>
+        <v>907.001053800534</v>
       </c>
       <c r="S21">
-        <v>0.004008938305191421</v>
+        <v>0.004502925986017742</v>
       </c>
       <c r="T21">
-        <v>0.004008938305191419</v>
+        <v>0.004502925986017743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N22">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O22">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P22">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q22">
-        <v>1985.350957523027</v>
+        <v>1432.935323709147</v>
       </c>
       <c r="R22">
-        <v>17868.15861770724</v>
+        <v>12896.41791338232</v>
       </c>
       <c r="S22">
-        <v>0.08421078211822638</v>
+        <v>0.06402596237940532</v>
       </c>
       <c r="T22">
-        <v>0.08421078211822638</v>
+        <v>0.0640259623794053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>37.373207</v>
       </c>
       <c r="O23">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P23">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q23">
-        <v>1990.634554832074</v>
+        <v>1511.432479229813</v>
       </c>
       <c r="R23">
-        <v>17915.71099348867</v>
+        <v>13602.89231306832</v>
       </c>
       <c r="S23">
-        <v>0.08443489154336689</v>
+        <v>0.06753334742540106</v>
       </c>
       <c r="T23">
-        <v>0.08443489154336689</v>
+        <v>0.06753334742540104</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N24">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O24">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P24">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q24">
-        <v>566.7472382468299</v>
+        <v>387.9616561227636</v>
       </c>
       <c r="R24">
-        <v>5100.725144221468</v>
+        <v>3491.654905104872</v>
       </c>
       <c r="S24">
-        <v>0.02403918965322623</v>
+        <v>0.01733477986659621</v>
       </c>
       <c r="T24">
-        <v>0.02403918965322622</v>
+        <v>0.01733477986659621</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N25">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O25">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P25">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q25">
-        <v>977.009405278152</v>
+        <v>980.4526050512502</v>
       </c>
       <c r="R25">
-        <v>8793.084647503369</v>
+        <v>8824.073445461252</v>
       </c>
       <c r="S25">
-        <v>0.04144089781384768</v>
+        <v>0.04380827282791101</v>
       </c>
       <c r="T25">
-        <v>0.04144089781384767</v>
+        <v>0.04380827282791101</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N26">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O26">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P26">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q26">
-        <v>447.6355871614146</v>
+        <v>345.1297094999551</v>
       </c>
       <c r="R26">
-        <v>4028.720284452732</v>
+        <v>3106.167385499596</v>
       </c>
       <c r="S26">
-        <v>0.01898694170719537</v>
+        <v>0.01542097639079798</v>
       </c>
       <c r="T26">
-        <v>0.01898694170719537</v>
+        <v>0.01542097639079798</v>
       </c>
     </row>
   </sheetData>
